--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/9.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/9.xlsx
@@ -479,13 +479,13 @@
         <v>-18.25974267730904</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.53632961182136</v>
+        <v>-21.54070527296725</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.08835915580968935</v>
+        <v>-0.08952273944401511</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.912058305245255</v>
+        <v>-8.908323103998933</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-18.16997662381502</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.68589899890089</v>
+        <v>-21.69021110295751</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2191058664515958</v>
+        <v>-0.2203721192301268</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.428687085320242</v>
+        <v>-8.425538564897948</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-17.91398141797096</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.87968945309166</v>
+        <v>-21.88330242916632</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.370273958776606</v>
+        <v>-0.3714619874452663</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.324942359604306</v>
+        <v>-8.32148094274253</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-17.48649996246489</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.00119105174824</v>
+        <v>-22.00458891152074</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3940100871154781</v>
+        <v>-0.3949536654407926</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.813752690606546</v>
+        <v>-7.81027660672417</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.90107053507262</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.94719685991003</v>
+        <v>-21.94978803354949</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5163428169394239</v>
+        <v>-0.517257061223537</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.120335068658266</v>
+        <v>-7.117049656043698</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.17264128285261</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.21878608037402</v>
+        <v>-22.22143103308902</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6573808870361864</v>
+        <v>-0.6588622561168616</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.538406359303113</v>
+        <v>-6.535458288162363</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.33682210131502</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.60633765471437</v>
+        <v>-22.6089190503401</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8254453870932545</v>
+        <v>-0.826921867167063</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.119086018341552</v>
+        <v>-6.116661070935562</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-14.41289487295861</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.88375946037059</v>
+        <v>-22.88661952938773</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.946482530097468</v>
+        <v>-0.9478758970545387</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.800215212467625</v>
+        <v>-5.797668039889962</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-13.41455209776334</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.33855932416535</v>
+        <v>-23.34127761198336</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.046228048196267</v>
+        <v>-1.047841420462349</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.495806088906033</v>
+        <v>-5.493855375166134</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-12.37203715406357</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.76125307986509</v>
+        <v>-23.76393225562816</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.303111136004579</v>
+        <v>-1.304729397277528</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.105790455104759</v>
+        <v>-5.1033166176301</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-11.29511451600209</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.22960038168807</v>
+        <v>-24.23224533440307</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.222569636879022</v>
+        <v>-1.223826111643819</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.938063296521508</v>
+        <v>-4.935838798397062</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-10.18277832290328</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.82226535012297</v>
+        <v>-24.82507652907144</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.149185643806629</v>
+        <v>-1.150711013949106</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.850887415077548</v>
+        <v>-4.848829143186577</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-9.058305478530492</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.42501145071744</v>
+        <v>-25.42755373428824</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.079805747358239</v>
+        <v>-1.081448453665522</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.717026407061416</v>
+        <v>-4.714748129861434</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.925543907761199</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.04301125273669</v>
+        <v>-26.04592510082938</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.034973554388628</v>
+        <v>-1.036630927716513</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.727787111175497</v>
+        <v>-4.725924399559202</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.780813046209586</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.81535455704102</v>
+        <v>-26.81859841309721</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9406890569601738</v>
+        <v>-0.9419504207318378</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.669881713843756</v>
+        <v>-4.668063003289263</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.647535265887299</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.57855052949734</v>
+        <v>-27.58134948592865</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8189674529945923</v>
+        <v>-0.8200919245739827</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.694170299958589</v>
+        <v>-4.692532482658173</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.534931191435191</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.45373409324722</v>
+        <v>-28.45671149842917</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6547750463761207</v>
+        <v>-0.6556257335709639</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.943040305512028</v>
+        <v>-4.94178383074723</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.445344459013836</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.11234931981337</v>
+        <v>-29.11529005744381</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4008155846742237</v>
+        <v>-0.4019009441986788</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.217269589684154</v>
+        <v>-5.216472681564847</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-2.404265184274666</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.53541708453842</v>
+        <v>-29.53819159593539</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1966995479805246</v>
+        <v>-0.1977506844569113</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.542315211230994</v>
+        <v>-5.541092959514265</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.424449094294798</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.12756626274886</v>
+        <v>-30.13022588248446</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2147592699390374</v>
+        <v>0.2136739104145823</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.861019790871446</v>
+        <v>-5.859548199804505</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.5080247091072335</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.68385213108704</v>
+        <v>-30.68702265204023</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2649595924485201</v>
+        <v>0.264050237171274</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.129680496222156</v>
+        <v>-6.128345797347488</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.3277025387945218</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.01357653220552</v>
+        <v>-31.01665905103511</v>
       </c>
       <c r="F23" t="n">
-        <v>0.549675796350179</v>
+        <v>0.5487615520660659</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.421837768575259</v>
+        <v>-6.420224396309178</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.076420310045092</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.22112709622322</v>
+        <v>-31.22477185084251</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7458129738370729</v>
+        <v>0.745006287704032</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.681869376805865</v>
+        <v>-6.680559122965532</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.741074171059617</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.52371262022346</v>
+        <v>-31.52774360638523</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9795759481717443</v>
+        <v>0.979013712382049</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.732133256404618</v>
+        <v>-6.730573663214072</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.312681342504125</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.43442713231642</v>
+        <v>-31.43834078231339</v>
       </c>
       <c r="F26" t="n">
-        <v>1.003996537471984</v>
+        <v>1.002916066954396</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.916849713850398</v>
+        <v>-6.916106584806627</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.788483811047201</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.53557823988946</v>
+        <v>-31.5397607852641</v>
       </c>
       <c r="F27" t="n">
-        <v>1.253849233405673</v>
+        <v>1.252876321039157</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.177321332699026</v>
+        <v>-7.176773763929932</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.173344009061654</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.3512651255102</v>
+        <v>-31.35541589234021</v>
       </c>
       <c r="F28" t="n">
-        <v>1.411808156268828</v>
+        <v>1.411260587499733</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.354181156109674</v>
+        <v>-7.353878037683925</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.46566590065688</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.1576555645735</v>
+        <v>-31.16184299895501</v>
       </c>
       <c r="F29" t="n">
-        <v>1.433935801348485</v>
+        <v>1.43337356555879</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.653451933454138</v>
+        <v>-7.653095035952854</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>3.66678203376016</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.04914894616919</v>
+        <v>-31.05393283938847</v>
       </c>
       <c r="F30" t="n">
-        <v>1.559373050532922</v>
+        <v>1.558991707997302</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.688486556662451</v>
+        <v>-7.688193216250436</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>3.78030519625446</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.76778660097823</v>
+        <v>-30.77220626318593</v>
       </c>
       <c r="F31" t="n">
-        <v>1.471263368777381</v>
+        <v>1.470486016685541</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.637572439150399</v>
+        <v>-7.636892867195898</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>3.805261293491011</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.36327750631999</v>
+        <v>-30.36808828907704</v>
       </c>
       <c r="F32" t="n">
-        <v>1.442217778981039</v>
+        <v>1.441601764115808</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.631950081253446</v>
+        <v>-7.630718051522984</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>3.74177927246738</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.86339855470884</v>
+        <v>-29.86775465982726</v>
       </c>
       <c r="F33" t="n">
-        <v>1.38952406296943</v>
+        <v>1.388864047042396</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.885611313536462</v>
+        <v>-7.884912185554493</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>3.590084189798473</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.2830783286129</v>
+        <v>-29.28746376777253</v>
       </c>
       <c r="F34" t="n">
-        <v>1.388150252039827</v>
+        <v>1.387534237174595</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.892196805786196</v>
+        <v>-7.891463454756159</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>3.351526838511831</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.81126960992814</v>
+        <v>-28.81590194393454</v>
       </c>
       <c r="F35" t="n">
-        <v>1.403032388942716</v>
+        <v>1.40226481486461</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.874381264763159</v>
+        <v>-7.873476798492779</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>3.031110258591979</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.18319600925961</v>
+        <v>-28.18763278299134</v>
       </c>
       <c r="F36" t="n">
-        <v>1.328567925352734</v>
+        <v>1.327912798432567</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.704571389254601</v>
+        <v>-7.703050908118991</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>2.630943380238256</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.53562260470239</v>
+        <v>-27.53964381285043</v>
       </c>
       <c r="F37" t="n">
-        <v>1.418838548143452</v>
+        <v>1.418110086120281</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.620548917239801</v>
+        <v>-7.619444001687879</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>2.156939666341345</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.95752198772404</v>
+        <v>-26.96134519109397</v>
       </c>
       <c r="F38" t="n">
-        <v>1.257046643896635</v>
+        <v>1.256200845708659</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.55895231972354</v>
+        <v>-7.557989185370758</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.620750775524836</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.19194506892352</v>
+        <v>-26.19524025955182</v>
       </c>
       <c r="F39" t="n">
-        <v>1.33827260398356</v>
+        <v>1.337676145145797</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.474079160513896</v>
+        <v>-7.472891131845236</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.027200044973682</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.550223805586</v>
+        <v>-25.55306920758255</v>
       </c>
       <c r="F40" t="n">
-        <v>1.334620515853975</v>
+        <v>1.333808940714067</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.147957957456335</v>
+        <v>-7.147161049337027</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3865249631739456</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.98064472757668</v>
+        <v>-24.98315767710627</v>
       </c>
       <c r="F41" t="n">
-        <v>1.386712884020953</v>
+        <v>1.386033312066452</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.139876429105324</v>
+        <v>-7.138571064271858</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.2831419576598966</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.29896072210899</v>
+        <v>-24.30141500355618</v>
       </c>
       <c r="F42" t="n">
-        <v>1.389504506941962</v>
+        <v>1.388692931802054</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.87532737852969</v>
+        <v>-6.874442468286778</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.9756342193036344</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.61550200714862</v>
+        <v>-23.6178829534928</v>
       </c>
       <c r="F43" t="n">
-        <v>1.341421124405853</v>
+        <v>1.340526436149208</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.822188762893191</v>
+        <v>-6.821582526041693</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.681788833371342</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.92796097145437</v>
+        <v>-22.92986768413246</v>
       </c>
       <c r="F44" t="n">
-        <v>1.45156556011058</v>
+        <v>1.450753984970672</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.740185450714426</v>
+        <v>-6.739432543656922</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.384822985118276</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.09453685985824</v>
+        <v>-22.096345792399</v>
       </c>
       <c r="F45" t="n">
-        <v>1.498632029218371</v>
+        <v>1.497644449831254</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.592009430591968</v>
+        <v>-6.591320080623733</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.083178158224583</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.57364251222966</v>
+        <v>-21.5752314394614</v>
       </c>
       <c r="F46" t="n">
-        <v>1.491816753645891</v>
+        <v>1.490995400492249</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.477093324185132</v>
+        <v>-6.477063990143931</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.772748532284567</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.88878554130534</v>
+        <v>-20.88989045685727</v>
       </c>
       <c r="F47" t="n">
-        <v>1.570788881567168</v>
+        <v>1.570265757832408</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.457258623326059</v>
+        <v>-6.456916392845375</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.440381788096695</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.25100970650942</v>
+        <v>-20.2519581738416</v>
       </c>
       <c r="F48" t="n">
-        <v>1.618207359169376</v>
+        <v>1.617752681530753</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.43489630591679</v>
+        <v>-6.434686078621512</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.086884399162074</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.4794559768141</v>
+        <v>-19.4799155434596</v>
       </c>
       <c r="F49" t="n">
-        <v>1.760228119646389</v>
+        <v>1.759509435636952</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.198918611471406</v>
+        <v>-6.198913722464539</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.711512738863825</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.08478111946866</v>
+        <v>-19.08513312796308</v>
       </c>
       <c r="F50" t="n">
-        <v>1.755476004971747</v>
+        <v>1.754762209969178</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.210275774423249</v>
+        <v>-6.21068645100007</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.304534518044448</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.50558536495211</v>
+        <v>-18.505956929474</v>
       </c>
       <c r="F51" t="n">
-        <v>1.727618443844066</v>
+        <v>1.727461995624325</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.264993539277762</v>
+        <v>-6.265301546710377</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.86826126187357</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.0340357636313</v>
+        <v>-18.03472511359954</v>
       </c>
       <c r="F52" t="n">
-        <v>1.731426980193393</v>
+        <v>1.73057629299855</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.274703106915454</v>
+        <v>-6.275206674622747</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.404762946384507</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.63266296687819</v>
+        <v>-17.63303942040694</v>
       </c>
       <c r="F53" t="n">
-        <v>1.81697482235067</v>
+        <v>1.815972575942953</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.18338134764835</v>
+        <v>-6.183591574943628</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.907740735216035</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.00470425787103</v>
+        <v>-17.00486559509764</v>
       </c>
       <c r="F54" t="n">
-        <v>1.873066398134786</v>
+        <v>1.872078818747669</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.185200058202843</v>
+        <v>-6.185596067759063</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.378217339798988</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.7940467299894</v>
+        <v>-16.79431562536708</v>
       </c>
       <c r="F55" t="n">
-        <v>1.859318510825021</v>
+        <v>1.858521602705714</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.42012661617184</v>
+        <v>-6.421084861517754</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.816615964077911</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.23734040706066</v>
+        <v>-16.23762396945894</v>
       </c>
       <c r="F56" t="n">
-        <v>1.889527684255688</v>
+        <v>1.88857432791664</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.318459718374343</v>
+        <v>-6.319061066218974</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.215903061407696</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.1404256239378</v>
+        <v>-16.14073363137042</v>
       </c>
       <c r="F57" t="n">
-        <v>1.930326446560094</v>
+        <v>1.929314422138642</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.50021832666564</v>
+        <v>-6.501719251773783</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.571128936307577</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.92231236058413</v>
+        <v>-15.92254703291374</v>
       </c>
       <c r="F58" t="n">
-        <v>1.814456983814209</v>
+        <v>1.81309295089834</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.653508247970891</v>
+        <v>-6.654784278763156</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.876401515691608</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.66143006515868</v>
+        <v>-15.66160606940589</v>
       </c>
       <c r="F59" t="n">
-        <v>1.871159685456689</v>
+        <v>1.870079214939101</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.425054735093689</v>
+        <v>-6.425690305986389</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.12375906351745</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.43613973972437</v>
+        <v>-15.43648197020506</v>
       </c>
       <c r="F60" t="n">
-        <v>1.937831072100808</v>
+        <v>1.936936383844162</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.45513190533895</v>
+        <v>-6.455787032259117</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.30617946519488</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.2909509027976</v>
+        <v>-15.29101934889374</v>
       </c>
       <c r="F61" t="n">
-        <v>1.88267818563514</v>
+        <v>1.881597715117552</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.290426152999453</v>
+        <v>-6.290357706903316</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.41763685606432</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.25982259607595</v>
+        <v>-15.26029682974204</v>
       </c>
       <c r="F62" t="n">
-        <v>1.87977900456306</v>
+        <v>1.878488306750194</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.372478355246886</v>
+        <v>-6.372620136446026</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.45524288312627</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.2055839538944</v>
+        <v>-15.2063515279725</v>
       </c>
       <c r="F63" t="n">
-        <v>1.86607022930823</v>
+        <v>1.865053315879912</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.411336181825126</v>
+        <v>-6.411130843536716</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.41294895453115</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.25302687653094</v>
+        <v>-15.25415134811033</v>
       </c>
       <c r="F64" t="n">
-        <v>1.7099104609721</v>
+        <v>1.708556206069965</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.403777777208876</v>
+        <v>-6.403367100632055</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.28482965380948</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.29759506312974</v>
+        <v>-15.29869508967479</v>
       </c>
       <c r="F65" t="n">
-        <v>1.704840560851109</v>
+        <v>1.703652532182449</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.506984712169451</v>
+        <v>-6.506554479565162</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.07366946532071</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.30436144863355</v>
+        <v>-15.3054761421992</v>
       </c>
       <c r="F66" t="n">
-        <v>1.797985919679573</v>
+        <v>1.797237901628935</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.454144325951834</v>
+        <v>-6.453841207526085</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.777234460311345</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.18305052124479</v>
+        <v>-15.18408699070057</v>
       </c>
       <c r="F67" t="n">
-        <v>1.62045141332129</v>
+        <v>1.619854954483527</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.215213671358833</v>
+        <v>-6.21449009834253</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.393366845069346</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.31263853725923</v>
+        <v>-15.31394879109957</v>
       </c>
       <c r="F68" t="n">
-        <v>1.582532276061498</v>
+        <v>1.581437138523309</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.337331284880634</v>
+        <v>-6.336578377823129</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.931985849364077</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.22108210566252</v>
+        <v>-15.22236791446852</v>
       </c>
       <c r="F69" t="n">
-        <v>1.549863932176772</v>
+        <v>1.548788350666051</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.197227015095453</v>
+        <v>-6.196733225401895</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.397720979627751</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.27113575796599</v>
+        <v>-15.27246556783379</v>
       </c>
       <c r="F70" t="n">
-        <v>1.476235488761033</v>
+        <v>1.475296799442585</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.140348309205764</v>
+        <v>-6.13961006916886</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.793351525245977</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.29589368874005</v>
+        <v>-15.29709149542244</v>
       </c>
       <c r="F71" t="n">
-        <v>1.367983098713802</v>
+        <v>1.366931962237416</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.144078621445221</v>
+        <v>-6.143452828566256</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.13546497642471</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.41455966341381</v>
+        <v>-15.41596280838461</v>
       </c>
       <c r="F72" t="n">
-        <v>1.290027884220843</v>
+        <v>1.289133195964198</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.008071339414514</v>
+        <v>-6.007768220988765</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.433821326097909</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.52387785695803</v>
+        <v>-15.52506099661982</v>
       </c>
       <c r="F73" t="n">
-        <v>1.220823992019662</v>
+        <v>1.220232422188766</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.15666292512066</v>
+        <v>-6.156526032928386</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.690780762831515</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.64061267391935</v>
+        <v>-15.64191803875282</v>
       </c>
       <c r="F74" t="n">
-        <v>1.087422550649021</v>
+        <v>1.086542529412976</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.068406573159111</v>
+        <v>-6.068416351172845</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.920873533185359</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.89308587753371</v>
+        <v>-15.8942983512367</v>
       </c>
       <c r="F75" t="n">
-        <v>1.029766492667493</v>
+        <v>1.028568685985099</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.10330430417515</v>
+        <v>-6.103377639278154</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.132509667718373</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.91496418326316</v>
+        <v>-15.9159175396022</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8167035734073397</v>
+        <v>0.8154862106974778</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.221662271416294</v>
+        <v>-6.221310262921876</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.325606589265878</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.97398427416055</v>
+        <v>-15.97485940638973</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6700822574685604</v>
+        <v>0.6689871199303714</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.153455736615964</v>
+        <v>-6.152927723874337</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.513197668921882</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.11714417323756</v>
+        <v>-16.11814153063841</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6863333162941857</v>
+        <v>0.6853115138590005</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.126214190353513</v>
+        <v>-6.125515062371544</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.705038323485408</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.24166228913101</v>
+        <v>-16.24240052916792</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4010304315684969</v>
+        <v>0.3997348447487645</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.144694636310452</v>
+        <v>-6.144386628877836</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.8988804249101534</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.72142053298138</v>
+        <v>-16.7224227793891</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3849113759282784</v>
+        <v>0.3836597901703481</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.107552851142499</v>
+        <v>-6.107528406108164</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.103458000423896</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.18934738021381</v>
+        <v>-17.19015406634685</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2137179114763846</v>
+        <v>0.2122316533888424</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.20956197942068</v>
+        <v>-6.209747761681622</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.6730017482200907</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.62269428187655</v>
+        <v>-17.62354985807826</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.09218235917961684</v>
+        <v>-0.09345838997188163</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.258848057646049</v>
+        <v>-6.259024061893258</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>1.435290546760376</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.10412945508226</v>
+        <v>-18.10481391604363</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.1023417154490661</v>
+        <v>-0.1035688561726617</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.302091323383912</v>
+        <v>-6.302487332940132</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>2.178821336329637</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.88149621394234</v>
+        <v>-18.88193622456036</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1986062606586214</v>
+        <v>-0.1995547279908029</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.328438181389717</v>
+        <v>-6.328834190945937</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>2.896218509569576</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.56902747162286</v>
+        <v>-19.56925236593873</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3551962615990403</v>
+        <v>-0.3562962881440961</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.426174317666213</v>
+        <v>-6.426922335716851</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>3.594145801299087</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.22617844063236</v>
+        <v>-20.22644244700317</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5146512205634713</v>
+        <v>-0.5160054754656068</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.68132180803677</v>
+        <v>-6.682284942389553</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>4.270949713630129</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.97810769676388</v>
+        <v>-20.97815658683255</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6164452325395074</v>
+        <v>-0.6179021565858481</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.011755115150951</v>
+        <v>-7.013070257998152</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>4.918501770177736</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.82700062608692</v>
+        <v>-21.82723529841654</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7297479666802614</v>
+        <v>-0.7309262173351879</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.293537914932461</v>
+        <v>-7.294887280827729</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>5.540650628314284</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.81949835411186</v>
+        <v>-22.81955702219426</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9432313405309695</v>
+        <v>-0.9447127096116448</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.370148652537019</v>
+        <v>-7.371600687576492</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>6.13282507162651</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.88646543473364</v>
+        <v>-23.8862943194933</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.194223175064649</v>
+        <v>-1.195508983870648</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.734824563747071</v>
+        <v>-7.736051704470666</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>6.680714745494657</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.10033250468562</v>
+        <v>-25.09989738307447</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.123762808098671</v>
+        <v>-1.124760165499522</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.10500549668927</v>
+        <v>-8.106442864708143</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>7.178743072999546</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.37079960713587</v>
+        <v>-26.36991958589983</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.338634659899583</v>
+        <v>-1.339319120860951</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.394845379787457</v>
+        <v>-8.396913429692161</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>7.614677137641173</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.63445876752395</v>
+        <v>-27.63367897092867</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.621698379480224</v>
+        <v>-1.622773960990946</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.705663991351575</v>
+        <v>-8.707971602592758</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>7.967885691109609</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.13876706841874</v>
+        <v>-29.13744214755781</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.865180699466323</v>
+        <v>-1.865777158304086</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.041533874101765</v>
+        <v>-9.043797484281146</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>8.229847764888369</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.77109156962027</v>
+        <v>-30.76933152714818</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.125686541363019</v>
+        <v>-2.125862545610228</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.318481446091894</v>
+        <v>-9.320852614422348</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>8.382075386321791</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.61323024501888</v>
+        <v>-32.61172931991074</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.143707420674467</v>
+        <v>-2.143394524234985</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.67231354007113</v>
+        <v>-9.67467493038785</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>8.420246943559237</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.33281862978798</v>
+        <v>-34.33089969459272</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.497739963935246</v>
+        <v>-2.49714839410435</v>
       </c>
       <c r="G97" t="n">
-        <v>-10.03630987932668</v>
+        <v>-10.0386712696434</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>8.320062363407134</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.32188173955112</v>
+        <v>-36.31955946128934</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.893685963066087</v>
+        <v>-2.893050392173389</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.47234573476623</v>
+        <v>-10.47481957224088</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>8.110282168084394</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.35341565196716</v>
+        <v>-38.3503575781719</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.168164586588426</v>
+        <v>-3.167592572784997</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.8099169919061</v>
+        <v>-10.8124739424975</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>7.74228999121354</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.55774173408057</v>
+        <v>-40.55485966453252</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.528992849394217</v>
+        <v>-3.52845016963199</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.99345030969009</v>
+        <v>-10.99551835959479</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>7.298294510138071</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.47061700533315</v>
+        <v>-42.46811872282415</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.960242367111051</v>
+        <v>-3.959802356493029</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.24734132529585</v>
+        <v>-11.24914047982287</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>6.660713292052233</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.73663746510016</v>
+        <v>-44.73378961860018</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.198791679168432</v>
+        <v>-4.198405447625945</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.38857984467415</v>
+        <v>-11.39017854991964</v>
       </c>
     </row>
   </sheetData>
